--- a/final_record/ФИТ-231.xlsx
+++ b/final_record/ФИТ-231.xlsx
@@ -463,15 +463,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Теория вероятностей</t>
+          <t>ООаиП</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Колодницкий</t>
+          <t>Изгородин</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Изгородин</t>
+          <t>Колодницкий</t>
         </is>
       </c>
     </row>
